--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T08:10:47+00:00</t>
+    <t>2025-12-04T16:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil ESMS héritant du profil SDODocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
+    <t>Profil ESMS héritant du profil ESMSDocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-document-reference</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -3525,7 +3525,7 @@
         <v>163</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T16:15:01+00:00</t>
+    <t>2025-12-05T08:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:40:02+00:00</t>
+    <t>2025-12-11T09:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:28:46+00:00</t>
+    <t>2025-12-11T09:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:35:14+00:00</t>
+    <t>2025-12-11T10:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil ESMS héritant du profil ESMSDocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -3525,7 +3525,7 @@
         <v>163</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T10:52:32+00:00</t>
+    <t>2025-12-11T11:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
